--- a/conception/Functionnal rules.xlsx
+++ b/conception/Functionnal rules.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Object</t>
   </si>
@@ -52,7 +52,36 @@
   </si>
   <si>
     <t>When the user create a contract (id contract = null or undefined), the system generate a new entry on scheduledPayment table.
-This entity has for value the value of the current contract (attribute: start date)</t>
+This entity has for values:
+● Due date/Start Date/GenerationDate =&gt; the value of the current contract (attribute: start date)
+● End date =&gt; Calculate the end date (start date + initial Scheduled Payment Type (MOIS,ANNEE,SEMAINE)
+● Amount Total =&gt; Calculate / depends of 3 criterias Initial Amount / initial scheduled payment type / duration type</t>
+  </si>
+  <si>
+    <t>CO-02</t>
+  </si>
+  <si>
+    <t>At the creation of the contract =&gt; create a price</t>
+  </si>
+  <si>
+    <t>GEN-01</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>The currency is €</t>
+  </si>
+  <si>
+    <t>When the user create a contract (id contract = null or undefined), the system generate a new entry on price table.
+This entity has for values:
+● Duration Type =&gt; the value of the current contract (attribute: initial duration type)
+● Start date =&gt; the value of the current contrat start date
+● Amount  =&gt; the value of the current contrat initial amount
+● Common status  =&gt; the value ="ACTIF"</t>
   </si>
 </sst>
 </file>
@@ -130,8 +159,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:D3" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="A1:D3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:D5" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A1:D5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="ID" dataDxfId="3"/>
     <tableColumn id="2" name="Short def" dataDxfId="2"/>
@@ -429,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -483,6 +512,34 @@
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/conception/Functionnal rules.xlsx
+++ b/conception/Functionnal rules.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Object</t>
   </si>
@@ -82,6 +82,50 @@
 ● Start date =&gt; the value of the current contrat start date
 ● Amount  =&gt; the value of the current contrat initial amount
 ● Common status  =&gt; the value ="ACTIF"</t>
+  </si>
+  <si>
+    <t>SCP-01</t>
+  </si>
+  <si>
+    <t>At the creation of the sch-payment =&gt; create a link with the active price</t>
+  </si>
+  <si>
+    <t>Scheduled Payment</t>
+  </si>
+  <si>
+    <t>When the user create a scheduled payment(id = null or undefined), the system create a link with the current active price (unique) =&gt; Price has for Common status = 'ACTIF'</t>
+  </si>
+  <si>
+    <t>PRI-01</t>
+  </si>
+  <si>
+    <t>Unicity of common status</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A contract can only have one 'ACTIF' (attribute: common status) price at once.
+If a price has for common status value 'ACTIF', the other prices for the same contract id have for common status value 'INACTIF'. </t>
+  </si>
+  <si>
+    <t>SCP-02</t>
+  </si>
+  <si>
+    <t>If the user update the value of the attribute Payment Type 
+● the sch payment has for status "PAYE"</t>
+  </si>
+  <si>
+    <t>SCP-03</t>
+  </si>
+  <si>
+    <t>Update of Scheduled Payment Status on sch. Payment (manually)</t>
+  </si>
+  <si>
+    <t>Update of Scheduled Payment Status on sch. Payment (auto)</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -159,8 +203,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:D5" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="A1:D5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:D9" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A1:D9"/>
   <tableColumns count="4">
     <tableColumn id="1" name="ID" dataDxfId="3"/>
     <tableColumn id="2" name="Short def" dataDxfId="2"/>
@@ -458,17 +502,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D8:D9"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="2"/>
     <col min="2" max="2" width="28.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="3"/>
+    <col min="3" max="3" width="22.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="68.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -528,7 +573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -540,6 +585,62 @@
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
